--- a/biology/Zoologie/Amaryllis_(papillon)/Amaryllis_(papillon).xlsx
+++ b/biology/Zoologie/Amaryllis_(papillon)/Amaryllis_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyronia tithonus
 L’Amaryllis (Pyronia tithonus) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago de Pyronia tithonus est un papillon de taille moyenne de couleur orange vif sur le dessus des ailes, avec une épaisse bordure brun foncé. L'apex des ailes antérieures a un ocelle doublement pupillé de blanc. Le dimorphisme sexuel est marqué : le mâle a une bande androconiale, une épaisse tache oblique en travers de l'aile antérieure[1]; la femelle a le verso des antérieures semblable, orange bordé de marron avec l'ocelle doublement pupillé caractéristique à l'apex. Les ailes postérieures sont beige à chamois avec une bande plus claire qui porte des petits ocelles pupillés de blanc peu visibles.
-Chenille
-Les chenilles sont vert pâle ou marron clair[2].
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago de Pyronia tithonus est un papillon de taille moyenne de couleur orange vif sur le dessus des ailes, avec une épaisse bordure brun foncé. L'apex des ailes antérieures a un ocelle doublement pupillé de blanc. Le dimorphisme sexuel est marqué : le mâle a une bande androconiale, une épaisse tache oblique en travers de l'aile antérieure; la femelle a le verso des antérieures semblable, orange bordé de marron avec l'ocelle doublement pupillé caractéristique à l'apex. Les ailes postérieures sont beige à chamois avec une bande plus claire qui porte des petits ocelles pupillés de blanc peu visibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont vert pâle ou marron clair.
 			♂ MHNT
 			♂   △ MHNT
 			♀   MHNT
@@ -528,41 +580,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Amaryllis_(papillon)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amaryllis_(papillon)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hibernation
-L'Amaryllis vole en une génération de juillet à septembre[3].
-Il hiverne au stade de chenille[2].
-Plantes hôtes
-Ses plantes hôtes sont diverses Poaceae: Poa (Poa annua), Milium (Milium effusum), Dactylis glomerata, Elytrigia repens, Brachypodium[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -584,14 +601,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition de l'Amaryllis inclut le centre et le Sud de l'Europe (toute l'Europe non nordique), le Maroc, l'Asie Mineure et le Caucase[3],[4].
-Il est présent dans tous les départements de France métropolitaine[5].
-Il réside dans les lieux herbus et buissonneux près des bois, des haies, sentiers forestiers, prairies broussailleuses, clairières[1].
+          <t>Période de vol et hibernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amaryllis vole en une génération de juillet à septembre.
+Il hiverne au stade de chenille.
 </t>
         </is>
       </c>
@@ -617,19 +639,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L'espèce Pyronia tithonus a été décrite par le naturasliste suédois Carl von Linné en 1771, sous le nom initial de Papilio tithonus[6].
-Elle est l'espèce type pour le genre Pyronia Hübner, [1819].
-Synonymes
-Papilio tithonus Linnaeus, 1771 — Protonyme.
-Pyronia tithone Hübner, 1819 [7]
-Epinephele tithonus decolorata Fruhstorfer, 1909[8]
-Epinephele tithonus distincta Rothschild, 1933[9]
-Maniola tithonus Otakar Kudrna[10],[4]</t>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses Poaceae: Poa (Poa annua), Milium (Milium effusum), Dactylis glomerata, Elytrigia repens, Brachypodium.
+</t>
         </is>
       </c>
     </row>
@@ -654,15 +676,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En français : l'Amaryllis, ou plus rarement le Satyre tithon ou le Titon[11].
-En anglais : gatekeeper ou hedge brown.
-En allemand : Rotbraunes Ochsenauge.
-En espagnol : Lobito agreste[4].</t>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de l'Amaryllis inclut le centre et le Sud de l'Europe (toute l'Europe non nordique), le Maroc, l'Asie Mineure et le Caucase,.
+Il est présent dans tous les départements de France métropolitaine.
+Il réside dans les lieux herbus et buissonneux près des bois, des haies, sentiers forestiers, prairies broussailleuses, clairières.
+</t>
         </is>
       </c>
     </row>
@@ -687,12 +711,123 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pyronia tithonus a été décrite par le naturasliste suédois Carl von Linné en 1771, sous le nom initial de Papilio tithonus.
+Elle est l'espèce type pour le genre Pyronia Hübner, .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Papilio tithonus Linnaeus, 1771 — Protonyme.
+Pyronia tithone Hübner, 1819 
+Epinephele tithonus decolorata Fruhstorfer, 1909
+Epinephele tithonus distincta Rothschild, 1933
+Maniola tithonus Otakar Kudrna,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En français : l'Amaryllis, ou plus rarement le Satyre tithon ou le Titon.
+En anglais : gatekeeper ou hedge brown.
+En allemand : Rotbraunes Ochsenauge.
+En espagnol : Lobito agreste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllis_(papillon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France[12].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France.
 </t>
         </is>
       </c>
